--- a/BackTest/2019-10-19 BackTest RDN.xlsx
+++ b/BackTest/2019-10-19 BackTest RDN.xlsx
@@ -917,7 +917,9 @@
       <c r="J12" t="n">
         <v>3</v>
       </c>
-      <c r="K12" t="inlineStr"/>
+      <c r="K12" t="n">
+        <v>33.33333333333333</v>
+      </c>
       <c r="L12" t="n">
         <v>184.2</v>
       </c>
@@ -962,7 +964,9 @@
       <c r="J13" t="n">
         <v>3</v>
       </c>
-      <c r="K13" t="inlineStr"/>
+      <c r="K13" t="n">
+        <v>33.33333333333333</v>
+      </c>
       <c r="L13" t="n">
         <v>184.3</v>
       </c>
@@ -1007,7 +1011,9 @@
       <c r="J14" t="n">
         <v>3</v>
       </c>
-      <c r="K14" t="inlineStr"/>
+      <c r="K14" t="n">
+        <v>33.33333333333333</v>
+      </c>
       <c r="L14" t="n">
         <v>184.4</v>
       </c>
@@ -1052,7 +1058,9 @@
       <c r="J15" t="n">
         <v>3</v>
       </c>
-      <c r="K15" t="inlineStr"/>
+      <c r="K15" t="n">
+        <v>33.33333333333333</v>
+      </c>
       <c r="L15" t="n">
         <v>184.5</v>
       </c>
@@ -1097,7 +1105,9 @@
       <c r="J16" t="n">
         <v>3</v>
       </c>
-      <c r="K16" t="inlineStr"/>
+      <c r="K16" t="n">
+        <v>33.33333333333333</v>
+      </c>
       <c r="L16" t="n">
         <v>184.6</v>
       </c>
@@ -1142,7 +1152,9 @@
       <c r="J17" t="n">
         <v>3</v>
       </c>
-      <c r="K17" t="inlineStr"/>
+      <c r="K17" t="n">
+        <v>33.33333333333333</v>
+      </c>
       <c r="L17" t="n">
         <v>184.7</v>
       </c>
@@ -1187,7 +1199,9 @@
       <c r="J18" t="n">
         <v>3</v>
       </c>
-      <c r="K18" t="inlineStr"/>
+      <c r="K18" t="n">
+        <v>33.33333333333333</v>
+      </c>
       <c r="L18" t="n">
         <v>184.8</v>
       </c>
@@ -1232,7 +1246,9 @@
       <c r="J19" t="n">
         <v>3</v>
       </c>
-      <c r="K19" t="inlineStr"/>
+      <c r="K19" t="n">
+        <v>0</v>
+      </c>
       <c r="L19" t="n">
         <v>184.9</v>
       </c>
@@ -1277,7 +1293,9 @@
       <c r="J20" t="n">
         <v>5</v>
       </c>
-      <c r="K20" t="inlineStr"/>
+      <c r="K20" t="n">
+        <v>100</v>
+      </c>
       <c r="L20" t="n">
         <v>185.1</v>
       </c>
@@ -1322,7 +1340,9 @@
       <c r="J21" t="n">
         <v>6</v>
       </c>
-      <c r="K21" t="inlineStr"/>
+      <c r="K21" t="n">
+        <v>33.33333333333333</v>
+      </c>
       <c r="L21" t="n">
         <v>185.3</v>
       </c>
@@ -1369,7 +1389,9 @@
       <c r="J22" t="n">
         <v>7</v>
       </c>
-      <c r="K22" t="inlineStr"/>
+      <c r="K22" t="n">
+        <v>0</v>
+      </c>
       <c r="L22" t="n">
         <v>185.3</v>
       </c>
@@ -1466,7 +1488,7 @@
         <v>10</v>
       </c>
       <c r="K24" t="n">
-        <v>20</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L24" t="n">
         <v>185.6</v>
@@ -1515,7 +1537,7 @@
         <v>11</v>
       </c>
       <c r="K25" t="n">
-        <v>9.090909090909092</v>
+        <v>0</v>
       </c>
       <c r="L25" t="n">
         <v>185.6</v>
@@ -1564,7 +1586,7 @@
         <v>12</v>
       </c>
       <c r="K26" t="n">
-        <v>16.66666666666666</v>
+        <v>11.11111111111111</v>
       </c>
       <c r="L26" t="n">
         <v>185.7</v>
@@ -1613,7 +1635,7 @@
         <v>13</v>
       </c>
       <c r="K27" t="n">
-        <v>7.692307692307693</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
         <v>185.7</v>
@@ -1662,7 +1684,7 @@
         <v>13</v>
       </c>
       <c r="K28" t="n">
-        <v>7.692307692307693</v>
+        <v>0</v>
       </c>
       <c r="L28" t="n">
         <v>185.7</v>
